--- a/preprocessing/probeGeometries/NRX_Buzsaki64_8X8(reversed)_OldPre2016.xlsx
+++ b/preprocessing/probeGeometries/NRX_Buzsaki64_8X8(reversed)_OldPre2016.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendonw/Dropbox/Code/GitRepos/buzcode/preprocessing/probeGeometries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22750452-B833-8A45-9BCC-42363770F5CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="40">
   <si>
     <t>SEE DERIVATION BELOW</t>
   </si>
@@ -120,23 +129,43 @@
   <si>
     <t>Omnetics</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X Coordinates (um)</t>
+  </si>
+  <si>
+    <t>Y Coordinates (um)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -144,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,180 +224,515 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
-    <col customWidth="1" min="2" max="2" width="9.29"/>
-    <col customWidth="1" min="3" max="3" width="9.0"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="15.14"/>
-    <col customWidth="1" min="10" max="10" width="11.29"/>
-    <col customWidth="1" min="11" max="11" width="8.86"/>
-    <col customWidth="1" min="12" max="12" width="9.43"/>
-    <col customWidth="1" min="13" max="13" width="8.43"/>
-    <col customWidth="1" min="14" max="15" width="9.14"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5">
+    <row r="1" spans="1:21" ht="39" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,12 +756,16 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="R1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" ht="48.75">
+    <row r="2" spans="1:21" ht="52" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -437,21 +805,25 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:B66" si="1">VLOOKUP(A3,D$92:E$156,2,FALSE)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(A3,D$92:E$156,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:C66" si="2">B3-1</f>
+        <f t="shared" ref="C3:C66" si="1">B3-1</f>
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -459,10 +831,10 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="13">
-        <f t="shared" ref="G3:G66" si="3">VLOOKUP(F3,$A$93:$B$156,2,FALSE)</f>
+        <f t="shared" ref="G3:G66" si="2">VLOOKUP(F3,$A$93:$B$156,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="H3" s="1"/>
@@ -470,48 +842,52 @@
         <v>12</v>
       </c>
       <c r="J3" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K66" si="4">VLOOKUP(J3,A$3:B$66,2)</f>
+        <f t="shared" ref="K3:K66" si="3">VLOOKUP(J3,A$3:B$66,2)</f>
         <v>17</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L66" si="5">K3</f>
+        <f t="shared" ref="L3:L66" si="4">K3</f>
         <v>17</v>
       </c>
       <c r="M3" s="17">
-        <f t="shared" ref="M3:M66" si="6">L3+32</f>
+        <f t="shared" ref="M3:M66" si="5">L3+32</f>
         <v>49</v>
       </c>
       <c r="N3" s="18">
-        <f t="shared" ref="N3:N66" si="7">L3+64</f>
+        <f t="shared" ref="N3:N66" si="6">L3+64</f>
         <v>81</v>
       </c>
       <c r="O3" s="18">
-        <f t="shared" ref="O3:O66" si="8">L3-32</f>
+        <f t="shared" ref="O3:O66" si="7">L3-32</f>
         <v>-15</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" ref="P3:P66" si="9">O3+64</f>
+        <f t="shared" ref="P3:P66" si="8">O3+64</f>
         <v>49</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="46">
+        <v>0</v>
+      </c>
+      <c r="S3" s="46">
+        <v>140</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="11">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C4" s="11">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -519,11 +895,11 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F66" si="10">F3+1</f>
+        <f t="shared" ref="F4:F66" si="9">F3+1</f>
         <v>1</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H4" s="1"/>
@@ -531,48 +907,52 @@
         <v>12</v>
       </c>
       <c r="J4" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K4" s="10">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="L4" s="16">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="L4" s="16">
+      <c r="M4" s="17">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="M4" s="17">
+        <v>54</v>
+      </c>
+      <c r="N4" s="18">
         <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="N4" s="18">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="O4" s="18">
-        <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="P4" s="19">
-        <f t="shared" si="9"/>
-        <v>54</v>
-      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="46">
+        <v>37</v>
+      </c>
+      <c r="S4" s="46">
+        <v>120</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="11">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -580,11 +960,11 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H5" s="1"/>
@@ -592,48 +972,52 @@
         <v>12</v>
       </c>
       <c r="J5" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="10">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L5" s="16">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="L5" s="16">
+      <c r="M5" s="17">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="M5" s="17">
+        <v>48</v>
+      </c>
+      <c r="N5" s="18">
         <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" si="7"/>
+        <v>-16</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="N5" s="18">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="O5" s="18">
-        <f t="shared" si="8"/>
-        <v>-16</v>
-      </c>
-      <c r="P5" s="19">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="46">
+        <v>4</v>
+      </c>
+      <c r="S5" s="46">
+        <v>100</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="11">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -641,11 +1025,11 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="H6" s="1"/>
@@ -653,48 +1037,52 @@
         <v>12</v>
       </c>
       <c r="J6" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="10">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="L6" s="16">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="L6" s="16">
+      <c r="M6" s="17">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="M6" s="17">
+        <v>55</v>
+      </c>
+      <c r="N6" s="18">
         <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="N6" s="18">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="O6" s="18">
-        <f t="shared" si="8"/>
-        <v>-9</v>
-      </c>
-      <c r="P6" s="19">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" s="46">
+        <v>33</v>
+      </c>
+      <c r="S6" s="46">
+        <v>80</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -702,11 +1090,11 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H7" s="1"/>
@@ -714,48 +1102,52 @@
         <v>12</v>
       </c>
       <c r="J7" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="10">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L7" s="16">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="17">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="M7" s="17">
+        <v>51</v>
+      </c>
+      <c r="N7" s="18">
         <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="N7" s="18">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="O7" s="18">
-        <f t="shared" si="8"/>
-        <v>-13</v>
-      </c>
-      <c r="P7" s="19">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="R7" s="46">
+        <v>8</v>
+      </c>
+      <c r="S7" s="46">
+        <v>60</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="11">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -763,11 +1155,11 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="H8" s="1"/>
@@ -775,48 +1167,52 @@
         <v>12</v>
       </c>
       <c r="J8" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L8" s="16">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="L8" s="16">
+      <c r="M8" s="17">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="M8" s="17">
+        <v>52</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="7"/>
+        <v>-12</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="N8" s="18">
-        <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" si="8"/>
-        <v>-12</v>
-      </c>
-      <c r="P8" s="19">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="R8" s="46">
+        <v>29</v>
+      </c>
+      <c r="S8" s="46">
+        <v>40</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="11">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -824,11 +1220,11 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="H9" s="1"/>
@@ -836,48 +1232,52 @@
         <v>12</v>
       </c>
       <c r="J9" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="L9" s="16">
+      <c r="M9" s="17">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="M9" s="17">
+        <v>50</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="N9" s="18">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="8"/>
-        <v>-14</v>
-      </c>
-      <c r="P9" s="19">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="R9" s="46">
+        <v>10</v>
+      </c>
+      <c r="S9" s="46">
+        <v>20</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="23">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="C10" s="23">
-        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -885,11 +1285,11 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="H10" s="1"/>
@@ -897,48 +1297,52 @@
         <v>12</v>
       </c>
       <c r="J10" s="26">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K10" s="22">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="L10" s="27">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L10" s="27">
+      <c r="M10" s="28">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="M10" s="28">
+        <v>53</v>
+      </c>
+      <c r="N10" s="29">
         <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="7"/>
+        <v>-11</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="N10" s="29">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="8"/>
-        <v>-11</v>
-      </c>
-      <c r="P10" s="19">
-        <f t="shared" si="9"/>
-        <v>53</v>
-      </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="R10" s="46">
+        <v>18.5</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="C11" s="11">
-        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -946,11 +1350,11 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="H11" s="1"/>
@@ -958,48 +1362,53 @@
         <v>13</v>
       </c>
       <c r="J11" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K11" s="10">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M11" s="17">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="M11" s="17">
+        <v>57</v>
+      </c>
+      <c r="N11" s="18">
         <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="N11" s="18">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="8"/>
-        <v>-7</v>
-      </c>
-      <c r="P11" s="19">
-        <f t="shared" si="9"/>
-        <v>57</v>
-      </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="R11" s="46">
+        <f t="shared" ref="R11:R66" si="10">R3+200</f>
+        <v>200</v>
+      </c>
+      <c r="S11" s="46">
+        <v>140</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C12" s="11">
-        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1007,11 +1416,11 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H12" s="1"/>
@@ -1019,48 +1428,53 @@
         <v>13</v>
       </c>
       <c r="J12" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K12" s="10">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L12" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M12" s="17">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="M12" s="17">
+        <v>62</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="N12" s="18">
-        <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="O12" s="18">
-        <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="9"/>
-        <v>62</v>
-      </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="R12" s="46">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="S12" s="46">
+        <v>120</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="11">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1068,11 +1482,11 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="H13" s="1"/>
@@ -1080,48 +1494,53 @@
         <v>13</v>
       </c>
       <c r="J13" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K13" s="10">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="16">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="L13" s="16">
+      <c r="M13" s="17">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="M13" s="17">
+        <v>56</v>
+      </c>
+      <c r="N13" s="18">
         <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="7"/>
+        <v>-8</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="N13" s="18">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="O13" s="18">
-        <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-      <c r="P13" s="19">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="R13" s="46">
+        <f t="shared" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="S13" s="46">
+        <v>100</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1129,11 +1548,11 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="H14" s="1"/>
@@ -1141,48 +1560,53 @@
         <v>13</v>
       </c>
       <c r="J14" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K14" s="10">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="L14" s="16">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="17">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="M14" s="17">
+        <v>63</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="N14" s="18">
-        <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="O14" s="18">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="P14" s="19">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R14" s="46">
+        <f t="shared" si="10"/>
+        <v>233</v>
+      </c>
+      <c r="S14" s="46">
+        <v>80</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="11">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1190,11 +1614,11 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="H15" s="1"/>
@@ -1202,48 +1626,53 @@
         <v>13</v>
       </c>
       <c r="J15" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K15" s="10">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L15" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="17">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="M15" s="17">
+        <v>59</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="N15" s="18">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-      <c r="P15" s="19">
-        <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="R15" s="46">
+        <f t="shared" si="10"/>
+        <v>208</v>
+      </c>
+      <c r="S15" s="46">
+        <v>60</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C16" s="11">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1251,11 +1680,11 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H16" s="1"/>
@@ -1263,48 +1692,53 @@
         <v>13</v>
       </c>
       <c r="J16" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K16" s="10">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="L16" s="16">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M16" s="17">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="M16" s="17">
+        <v>60</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="N16" s="18">
-        <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="8"/>
-        <v>-4</v>
-      </c>
-      <c r="P16" s="19">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="R16" s="46">
+        <f t="shared" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="S16" s="46">
+        <v>40</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="11">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1312,11 +1746,11 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="H17" s="1"/>
@@ -1324,48 +1758,53 @@
         <v>13</v>
       </c>
       <c r="J17" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K17" s="10">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="L17" s="16">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L17" s="16">
+      <c r="M17" s="17">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="M17" s="17">
+        <v>58</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="N17" s="18">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="O17" s="18">
-        <f t="shared" si="8"/>
-        <v>-6</v>
-      </c>
-      <c r="P17" s="19">
-        <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="R17" s="46">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="S17" s="46">
+        <v>20</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C18" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -1373,11 +1812,11 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="G18" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="H18" s="1"/>
@@ -1385,48 +1824,53 @@
         <v>13</v>
       </c>
       <c r="J18" s="26">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K18" s="22">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="L18" s="27">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="L18" s="27">
+      <c r="M18" s="28">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="M18" s="28">
+        <v>61</v>
+      </c>
+      <c r="N18" s="29">
         <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O18" s="29">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="N18" s="29">
-        <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="O18" s="29">
-        <f t="shared" si="8"/>
-        <v>-3</v>
-      </c>
-      <c r="P18" s="19">
-        <f t="shared" si="9"/>
-        <v>61</v>
-      </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="R18" s="46">
+        <f t="shared" si="10"/>
+        <v>218.5</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1434,11 +1878,11 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H19" s="1"/>
@@ -1446,48 +1890,53 @@
         <v>14</v>
       </c>
       <c r="J19" s="15">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="16">
+      <c r="M19" s="17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
+        <v>32</v>
+      </c>
+      <c r="N19" s="18">
         <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="N19" s="18">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="O19" s="18">
-        <f t="shared" si="8"/>
-        <v>-32</v>
-      </c>
-      <c r="P19" s="19">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="R19" s="46">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="S19" s="46">
+        <v>140</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1495,11 +1944,11 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H20" s="1"/>
@@ -1507,48 +1956,53 @@
         <v>14</v>
       </c>
       <c r="J20" s="15">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K20" s="10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L20" s="16">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L20" s="16">
+      <c r="M20" s="17">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="M20" s="17">
+        <v>41</v>
+      </c>
+      <c r="N20" s="18">
         <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="7"/>
+        <v>-23</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="N20" s="18">
-        <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="O20" s="18">
-        <f t="shared" si="8"/>
-        <v>-23</v>
-      </c>
-      <c r="P20" s="19">
-        <f t="shared" si="9"/>
-        <v>41</v>
-      </c>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="R20" s="46">
+        <f t="shared" si="10"/>
+        <v>437</v>
+      </c>
+      <c r="S20" s="46">
+        <v>120</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1556,11 +2010,11 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H21" s="1"/>
@@ -1568,48 +2022,53 @@
         <v>14</v>
       </c>
       <c r="J21" s="15">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K21" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L21" s="16">
+      <c r="M21" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="17">
+        <v>33</v>
+      </c>
+      <c r="N21" s="18">
         <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" si="7"/>
+        <v>-31</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="N21" s="18">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="O21" s="18">
-        <f t="shared" si="8"/>
-        <v>-31</v>
-      </c>
-      <c r="P21" s="19">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="R21" s="46">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="S21" s="46">
+        <v>100</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C22" s="11">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1617,11 +2076,11 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H22" s="1"/>
@@ -1629,48 +2088,53 @@
         <v>14</v>
       </c>
       <c r="J22" s="15">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="K22" s="10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L22" s="16">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="L22" s="16">
+      <c r="M22" s="17">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="M22" s="17">
+        <v>40</v>
+      </c>
+      <c r="N22" s="18">
         <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="7"/>
+        <v>-24</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="N22" s="18">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="8"/>
-        <v>-24</v>
-      </c>
-      <c r="P22" s="19">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="R22" s="46">
+        <f t="shared" si="10"/>
+        <v>433</v>
+      </c>
+      <c r="S22" s="46">
+        <v>80</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C23" s="11">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1678,11 +2142,11 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H23" s="1"/>
@@ -1690,48 +2154,53 @@
         <v>14</v>
       </c>
       <c r="J23" s="15">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K23" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L23" s="16">
+      <c r="M23" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M23" s="17">
+        <v>34</v>
+      </c>
+      <c r="N23" s="18">
         <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="P23" s="19">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="N23" s="18">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="O23" s="18">
-        <f t="shared" si="8"/>
-        <v>-30</v>
-      </c>
-      <c r="P23" s="19">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="R23" s="46">
+        <f t="shared" si="10"/>
+        <v>408</v>
+      </c>
+      <c r="S23" s="46">
+        <v>60</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C24" s="11">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1739,11 +2208,11 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H24" s="1"/>
@@ -1751,48 +2220,53 @@
         <v>14</v>
       </c>
       <c r="J24" s="15">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="K24" s="10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="L24" s="16">
+      <c r="M24" s="17">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="M24" s="17">
+        <v>38</v>
+      </c>
+      <c r="N24" s="18">
         <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="P24" s="19">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="N24" s="18">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="O24" s="18">
-        <f t="shared" si="8"/>
-        <v>-26</v>
-      </c>
-      <c r="P24" s="19">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="R24" s="46">
+        <f t="shared" si="10"/>
+        <v>429</v>
+      </c>
+      <c r="S24" s="46">
+        <v>40</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="11">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C25" s="11">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1800,11 +2274,11 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H25" s="1"/>
@@ -1812,48 +2286,53 @@
         <v>14</v>
       </c>
       <c r="J25" s="15">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K25" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="L25" s="16">
+      <c r="M25" s="17">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M25" s="17">
+        <v>36</v>
+      </c>
+      <c r="N25" s="18">
         <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+      <c r="P25" s="19">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="N25" s="18">
-        <f t="shared" si="7"/>
-        <v>68</v>
-      </c>
-      <c r="O25" s="18">
-        <f t="shared" si="8"/>
-        <v>-28</v>
-      </c>
-      <c r="P25" s="19">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="46">
+        <f t="shared" si="10"/>
+        <v>410</v>
+      </c>
+      <c r="S25" s="46">
+        <v>20</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" ht="6.0" customHeight="1">
+    <row r="26" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C26" s="23">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C26" s="23">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1861,11 +2340,11 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H26" s="1"/>
@@ -1873,48 +2352,53 @@
         <v>14</v>
       </c>
       <c r="J26" s="26">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K26" s="22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="27">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="L26" s="27">
+      <c r="M26" s="28">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="M26" s="28">
+        <v>37</v>
+      </c>
+      <c r="N26" s="29">
         <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="O26" s="29">
+        <f t="shared" si="7"/>
+        <v>-27</v>
+      </c>
+      <c r="P26" s="19">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="N26" s="29">
-        <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="O26" s="29">
-        <f t="shared" si="8"/>
-        <v>-27</v>
-      </c>
-      <c r="P26" s="19">
-        <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="R26" s="46">
+        <f t="shared" si="10"/>
+        <v>418.5</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C27" s="11">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1922,11 +2406,11 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H27" s="1"/>
@@ -1934,48 +2418,53 @@
         <v>15</v>
       </c>
       <c r="J27" s="15">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K27" s="10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="L27" s="16">
+      <c r="M27" s="17">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="M27" s="17">
+        <v>42</v>
+      </c>
+      <c r="N27" s="18">
         <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="7"/>
+        <v>-22</v>
+      </c>
+      <c r="P27" s="19">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="N27" s="18">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="O27" s="18">
-        <f t="shared" si="8"/>
-        <v>-22</v>
-      </c>
-      <c r="P27" s="19">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="R27" s="46">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="S27" s="46">
+        <v>140</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C28" s="11">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C28" s="11">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1983,11 +2472,11 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H28" s="1"/>
@@ -1995,48 +2484,53 @@
         <v>15</v>
       </c>
       <c r="J28" s="15">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="K28" s="10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L28" s="16">
+      <c r="M28" s="17">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M28" s="17">
+        <v>35</v>
+      </c>
+      <c r="N28" s="18">
         <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="7"/>
+        <v>-29</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="N28" s="18">
-        <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" si="8"/>
-        <v>-29</v>
-      </c>
-      <c r="P28" s="19">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="R28" s="46">
+        <f t="shared" si="10"/>
+        <v>637</v>
+      </c>
+      <c r="S28" s="46">
+        <v>120</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C29" s="11">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2044,11 +2538,11 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H29" s="1"/>
@@ -2056,48 +2550,53 @@
         <v>15</v>
       </c>
       <c r="J29" s="15">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K29" s="10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="L29" s="16">
+      <c r="M29" s="17">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="M29" s="17">
+        <v>44</v>
+      </c>
+      <c r="N29" s="18">
         <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="7"/>
+        <v>-20</v>
+      </c>
+      <c r="P29" s="19">
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="N29" s="18">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="O29" s="18">
-        <f t="shared" si="8"/>
-        <v>-20</v>
-      </c>
-      <c r="P29" s="19">
-        <f t="shared" si="9"/>
-        <v>44</v>
-      </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="R29" s="46">
+        <f t="shared" si="10"/>
+        <v>604</v>
+      </c>
+      <c r="S29" s="46">
+        <v>100</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C30" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C30" s="11">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2105,11 +2604,11 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H30" s="1"/>
@@ -2117,48 +2616,53 @@
         <v>15</v>
       </c>
       <c r="J30" s="15">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="K30" s="10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="16">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="L30" s="16">
+      <c r="M30" s="17">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="M30" s="17">
+        <v>39</v>
+      </c>
+      <c r="N30" s="18">
         <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="7"/>
+        <v>-25</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="N30" s="18">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="8"/>
-        <v>-25</v>
-      </c>
-      <c r="P30" s="19">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="R30" s="46">
+        <f t="shared" si="10"/>
+        <v>633</v>
+      </c>
+      <c r="S30" s="46">
+        <v>80</v>
+      </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="11">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C31" s="11">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2166,11 +2670,11 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H31" s="1"/>
@@ -2178,48 +2682,53 @@
         <v>15</v>
       </c>
       <c r="J31" s="15">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="K31" s="10">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L31" s="16">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="L31" s="16">
+      <c r="M31" s="17">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="M31" s="17">
+        <v>45</v>
+      </c>
+      <c r="N31" s="18">
         <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="7"/>
+        <v>-19</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="N31" s="18">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="O31" s="18">
-        <f t="shared" si="8"/>
-        <v>-19</v>
-      </c>
-      <c r="P31" s="19">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="46">
+        <f t="shared" si="10"/>
+        <v>608</v>
+      </c>
+      <c r="S31" s="46">
+        <v>60</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2227,11 +2736,11 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H32" s="1"/>
@@ -2239,48 +2748,53 @@
         <v>15</v>
       </c>
       <c r="J32" s="15">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K32" s="10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L32" s="16">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="L32" s="16">
+      <c r="M32" s="17">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="M32" s="17">
+        <v>43</v>
+      </c>
+      <c r="N32" s="18">
         <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" si="7"/>
+        <v>-21</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="N32" s="18">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="O32" s="18">
-        <f t="shared" si="8"/>
-        <v>-21</v>
-      </c>
-      <c r="P32" s="19">
-        <f t="shared" si="9"/>
-        <v>43</v>
-      </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="46">
+        <f t="shared" si="10"/>
+        <v>629</v>
+      </c>
+      <c r="S32" s="46">
+        <v>40</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C33" s="11">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2288,11 +2802,11 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H33" s="1"/>
@@ -2300,48 +2814,53 @@
         <v>15</v>
       </c>
       <c r="J33" s="15">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="K33" s="10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L33" s="16">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="L33" s="16">
+      <c r="M33" s="17">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="M33" s="17">
+        <v>46</v>
+      </c>
+      <c r="N33" s="18">
         <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="7"/>
+        <v>-18</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="N33" s="18">
-        <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="O33" s="18">
-        <f t="shared" si="8"/>
-        <v>-18</v>
-      </c>
-      <c r="P33" s="19">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="R33" s="46">
+        <f t="shared" si="10"/>
+        <v>610</v>
+      </c>
+      <c r="S33" s="46">
+        <v>20</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="21">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="23">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="23">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -2349,11 +2868,11 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="G34" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H34" s="1"/>
@@ -2361,48 +2880,53 @@
         <v>15</v>
       </c>
       <c r="J34" s="26">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="K34" s="22">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L34" s="27">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="L34" s="27">
+      <c r="M34" s="28">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="M34" s="28">
+        <v>47</v>
+      </c>
+      <c r="N34" s="29">
         <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="O34" s="29">
+        <f t="shared" si="7"/>
+        <v>-17</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="N34" s="29">
-        <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="O34" s="29">
-        <f t="shared" si="8"/>
-        <v>-17</v>
-      </c>
-      <c r="P34" s="19">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="R34" s="46">
+        <f t="shared" si="10"/>
+        <v>618.5</v>
+      </c>
+      <c r="S34" s="46">
+        <v>0</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C35" s="11">
-        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2410,11 +2934,11 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="H35" s="1"/>
@@ -2422,48 +2946,53 @@
         <v>16</v>
       </c>
       <c r="J35" s="15">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="K35" s="10">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="L35" s="16">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="L35" s="16">
+      <c r="M35" s="17">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="M35" s="17">
+        <v>93</v>
+      </c>
+      <c r="N35" s="18">
         <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="N35" s="18">
-        <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="O35" s="18">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="P35" s="19">
-        <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="R35" s="46">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="S35" s="46">
+        <v>140</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="10">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C36" s="11">
-        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2471,11 +3000,11 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="H36" s="1"/>
@@ -2483,48 +3012,53 @@
         <v>16</v>
       </c>
       <c r="J36" s="15">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K36" s="10">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="L36" s="16">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="L36" s="16">
+      <c r="M36" s="17">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="M36" s="17">
+        <v>84</v>
+      </c>
+      <c r="N36" s="18">
         <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="O36" s="18">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="P36" s="19">
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="N36" s="18">
-        <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="O36" s="18">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="P36" s="19">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="R36" s="46">
+        <f t="shared" si="10"/>
+        <v>837</v>
+      </c>
+      <c r="S36" s="46">
+        <v>120</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2532,11 +3066,11 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="G37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="H37" s="1"/>
@@ -2544,48 +3078,53 @@
         <v>16</v>
       </c>
       <c r="J37" s="15">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="K37" s="10">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L37" s="16">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="L37" s="16">
+      <c r="M37" s="17">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="M37" s="17">
+        <v>89</v>
+      </c>
+      <c r="N37" s="18">
         <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="O37" s="18">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="P37" s="19">
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="N37" s="18">
-        <f t="shared" si="7"/>
-        <v>121</v>
-      </c>
-      <c r="O37" s="18">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="P37" s="19">
-        <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="R37" s="46">
+        <f t="shared" si="10"/>
+        <v>804</v>
+      </c>
+      <c r="S37" s="46">
+        <v>100</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C38" s="11">
-        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2593,11 +3132,11 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="G38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="H38" s="1"/>
@@ -2605,48 +3144,53 @@
         <v>16</v>
       </c>
       <c r="J38" s="15">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="K38" s="10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L38" s="16">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="L38" s="16">
+      <c r="M38" s="17">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="M38" s="17">
+        <v>82</v>
+      </c>
+      <c r="N38" s="18">
         <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="P38" s="19">
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="N38" s="18">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-      <c r="O38" s="18">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="P38" s="19">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="R38" s="46">
+        <f t="shared" si="10"/>
+        <v>833</v>
+      </c>
+      <c r="S38" s="46">
+        <v>80</v>
+      </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2654,11 +3198,11 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="G39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="H39" s="1"/>
@@ -2666,48 +3210,53 @@
         <v>16</v>
       </c>
       <c r="J39" s="15">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="K39" s="10">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="L39" s="16">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L39" s="16">
+      <c r="M39" s="17">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="M39" s="17">
+        <v>85</v>
+      </c>
+      <c r="N39" s="18">
         <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="O39" s="18">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="P39" s="19">
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="N39" s="18">
-        <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-      <c r="O39" s="18">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="P39" s="19">
-        <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="R39" s="46">
+        <f t="shared" si="10"/>
+        <v>808</v>
+      </c>
+      <c r="S39" s="46">
+        <v>60</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="10">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C40" s="11">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2715,11 +3264,11 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="H40" s="1"/>
@@ -2727,48 +3276,53 @@
         <v>16</v>
       </c>
       <c r="J40" s="15">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="K40" s="10">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="L40" s="16">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="L40" s="16">
+      <c r="M40" s="17">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="M40" s="17">
+        <v>83</v>
+      </c>
+      <c r="N40" s="18">
         <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="O40" s="18">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="P40" s="19">
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="N40" s="18">
-        <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="O40" s="18">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="P40" s="19">
-        <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="R40" s="46">
+        <f t="shared" si="10"/>
+        <v>829</v>
+      </c>
+      <c r="S40" s="46">
+        <v>40</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C41" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C41" s="11">
-        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2776,11 +3330,11 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="H41" s="1"/>
@@ -2788,48 +3342,53 @@
         <v>16</v>
       </c>
       <c r="J41" s="15">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="K41" s="10">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="L41" s="16">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="L41" s="16">
+      <c r="M41" s="17">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="M41" s="17">
+        <v>81</v>
+      </c>
+      <c r="N41" s="18">
         <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="O41" s="18">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="N41" s="18">
-        <f t="shared" si="7"/>
-        <v>113</v>
-      </c>
-      <c r="O41" s="18">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="P41" s="19">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="R41" s="46">
+        <f t="shared" si="10"/>
+        <v>810</v>
+      </c>
+      <c r="S41" s="46">
+        <v>20</v>
+      </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="21">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="22">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="23">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C42" s="23">
-        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -2837,11 +3396,11 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="G42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="H42" s="1"/>
@@ -2849,48 +3408,53 @@
         <v>16</v>
       </c>
       <c r="J42" s="26">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="K42" s="22">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="L42" s="27">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="L42" s="27">
+      <c r="M42" s="28">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="M42" s="28">
+        <v>80</v>
+      </c>
+      <c r="N42" s="29">
         <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="O42" s="29">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="P42" s="19">
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="N42" s="29">
-        <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-      <c r="O42" s="29">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="P42" s="19">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="R42" s="46">
+        <f t="shared" si="10"/>
+        <v>818.5</v>
+      </c>
+      <c r="S42" s="46">
+        <v>0</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C43" s="11">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C43" s="11">
-        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2898,11 +3462,11 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="H43" s="1"/>
@@ -2910,48 +3474,53 @@
         <v>17</v>
       </c>
       <c r="J43" s="15">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="K43" s="10">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="L43" s="16">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="L43" s="16">
+      <c r="M43" s="17">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="M43" s="17">
+        <v>87</v>
+      </c>
+      <c r="N43" s="18">
         <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="N43" s="18">
-        <f t="shared" si="7"/>
-        <v>119</v>
-      </c>
-      <c r="O43" s="18">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="P43" s="19">
-        <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="R43" s="46">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="S43" s="46">
+        <v>140</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="11">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C44" s="11">
-        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2959,11 +3528,11 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="H44" s="1"/>
@@ -2971,48 +3540,53 @@
         <v>17</v>
       </c>
       <c r="J44" s="15">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="K44" s="10">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="L44" s="16">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="L44" s="16">
+      <c r="M44" s="17">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="M44" s="17">
+        <v>94</v>
+      </c>
+      <c r="N44" s="18">
         <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="O44" s="18">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="P44" s="19">
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
-      <c r="N44" s="18">
-        <f t="shared" si="7"/>
-        <v>126</v>
-      </c>
-      <c r="O44" s="18">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="P44" s="19">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="R44" s="46">
+        <f t="shared" si="10"/>
+        <v>1037</v>
+      </c>
+      <c r="S44" s="46">
+        <v>120</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C45" s="11">
         <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C45" s="11">
-        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3020,11 +3594,11 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="H45" s="1"/>
@@ -3032,48 +3606,53 @@
         <v>17</v>
       </c>
       <c r="J45" s="15">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="K45" s="10">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L45" s="16">
+      <c r="M45" s="17">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="M45" s="17">
+        <v>86</v>
+      </c>
+      <c r="N45" s="18">
         <f t="shared" si="6"/>
+        <v>118</v>
+      </c>
+      <c r="O45" s="18">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="P45" s="19">
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
-      <c r="N45" s="18">
-        <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-      <c r="O45" s="18">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="P45" s="19">
-        <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
       <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="R45" s="46">
+        <f t="shared" si="10"/>
+        <v>1004</v>
+      </c>
+      <c r="S45" s="46">
+        <v>100</v>
+      </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="10">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C46" s="11">
         <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C46" s="11">
-        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3081,11 +3660,11 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="H46" s="1"/>
@@ -3093,48 +3672,53 @@
         <v>17</v>
       </c>
       <c r="J46" s="15">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="K46" s="10">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="L46" s="16">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="L46" s="16">
+      <c r="M46" s="17">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="M46" s="17">
+        <v>95</v>
+      </c>
+      <c r="N46" s="18">
         <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="O46" s="18">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="P46" s="19">
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="N46" s="18">
-        <f t="shared" si="7"/>
-        <v>127</v>
-      </c>
-      <c r="O46" s="18">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="P46" s="19">
-        <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="R46" s="46">
+        <f t="shared" si="10"/>
+        <v>1033</v>
+      </c>
+      <c r="S46" s="46">
+        <v>80</v>
+      </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="10">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C47" s="11">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3142,11 +3726,11 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="H47" s="1"/>
@@ -3154,48 +3738,53 @@
         <v>17</v>
       </c>
       <c r="J47" s="15">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="K47" s="10">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="L47" s="16">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="L47" s="16">
+      <c r="M47" s="17">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="M47" s="17">
+        <v>88</v>
+      </c>
+      <c r="N47" s="18">
         <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="O47" s="18">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="P47" s="19">
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
-      <c r="N47" s="18">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="O47" s="18">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="P47" s="19">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
       <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="R47" s="46">
+        <f t="shared" si="10"/>
+        <v>1008</v>
+      </c>
+      <c r="S47" s="46">
+        <v>60</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C48" s="11">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C48" s="11">
-        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3203,11 +3792,11 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="H48" s="1"/>
@@ -3215,48 +3804,53 @@
         <v>17</v>
       </c>
       <c r="J48" s="15">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K48" s="10">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L48" s="16">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="L48" s="16">
+      <c r="M48" s="17">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="M48" s="17">
+        <v>92</v>
+      </c>
+      <c r="N48" s="18">
         <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="O48" s="18">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="P48" s="19">
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="N48" s="18">
-        <f t="shared" si="7"/>
-        <v>124</v>
-      </c>
-      <c r="O48" s="18">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="P48" s="19">
-        <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="R48" s="46">
+        <f t="shared" si="10"/>
+        <v>1029</v>
+      </c>
+      <c r="S48" s="46">
+        <v>40</v>
+      </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C49" s="11">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C49" s="11">
-        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3264,11 +3858,11 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="H49" s="1"/>
@@ -3276,48 +3870,53 @@
         <v>17</v>
       </c>
       <c r="J49" s="15">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="K49" s="10">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="L49" s="16">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="L49" s="16">
+      <c r="M49" s="17">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="M49" s="17">
+        <v>91</v>
+      </c>
+      <c r="N49" s="18">
         <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="O49" s="18">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="P49" s="19">
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="N49" s="18">
-        <f t="shared" si="7"/>
-        <v>123</v>
-      </c>
-      <c r="O49" s="18">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="P49" s="19">
-        <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+      <c r="R49" s="46">
+        <f t="shared" si="10"/>
+        <v>1010</v>
+      </c>
+      <c r="S49" s="46">
+        <v>20</v>
+      </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C50" s="23">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C50" s="23">
-        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D50" s="24" t="s">
@@ -3325,11 +3924,11 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="G50" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="H50" s="1"/>
@@ -3337,48 +3936,53 @@
         <v>17</v>
       </c>
       <c r="J50" s="26">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="K50" s="22">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="L50" s="27">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="L50" s="27">
+      <c r="M50" s="28">
         <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="M50" s="28">
+        <v>90</v>
+      </c>
+      <c r="N50" s="29">
         <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="O50" s="29">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P50" s="19">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="N50" s="29">
-        <f t="shared" si="7"/>
-        <v>122</v>
-      </c>
-      <c r="O50" s="29">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="P50" s="19">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="R50" s="46">
+        <f t="shared" si="10"/>
+        <v>1018.5</v>
+      </c>
+      <c r="S50" s="46">
+        <v>0</v>
+      </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C51" s="11">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C51" s="11">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3386,11 +3990,11 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="G51" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="H51" s="1"/>
@@ -3398,48 +4002,53 @@
         <v>18</v>
       </c>
       <c r="J51" s="15">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="K51" s="10">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="L51" s="16">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="L51" s="16">
+      <c r="M51" s="17">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="M51" s="17">
+        <v>64</v>
+      </c>
+      <c r="N51" s="18">
         <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="O51" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="19">
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="N51" s="18">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="O51" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="19">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
+      <c r="R51" s="46">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+      <c r="S51" s="46">
+        <v>140</v>
+      </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C52" s="11">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C52" s="11">
-        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3447,11 +4056,11 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="G52" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="H52" s="1"/>
@@ -3459,48 +4068,53 @@
         <v>18</v>
       </c>
       <c r="J52" s="15">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="K52" s="10">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="L52" s="16">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="L52" s="16">
+      <c r="M52" s="17">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="M52" s="17">
+        <v>71</v>
+      </c>
+      <c r="N52" s="18">
         <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="O52" s="18">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="P52" s="19">
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="N52" s="18">
-        <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-      <c r="O52" s="18">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="P52" s="19">
-        <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
+      <c r="R52" s="46">
+        <f t="shared" si="10"/>
+        <v>1237</v>
+      </c>
+      <c r="S52" s="46">
+        <v>120</v>
+      </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C53" s="11">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C53" s="11">
-        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3508,11 +4122,11 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G53" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="H53" s="1"/>
@@ -3520,48 +4134,53 @@
         <v>18</v>
       </c>
       <c r="J53" s="15">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K53" s="10">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="L53" s="16">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="L53" s="16">
+      <c r="M53" s="17">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="M53" s="17">
+        <v>65</v>
+      </c>
+      <c r="N53" s="18">
         <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="O53" s="18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P53" s="19">
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
-      <c r="N53" s="18">
-        <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="O53" s="18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="P53" s="19">
-        <f t="shared" si="9"/>
-        <v>65</v>
-      </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
+      <c r="R53" s="46">
+        <f t="shared" si="10"/>
+        <v>1204</v>
+      </c>
+      <c r="S53" s="46">
+        <v>100</v>
+      </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C54" s="11">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C54" s="11">
-        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3569,11 +4188,11 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="G54" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="H54" s="1"/>
@@ -3581,48 +4200,53 @@
         <v>18</v>
       </c>
       <c r="J54" s="15">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="K54" s="10">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="L54" s="16">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="L54" s="16">
+      <c r="M54" s="17">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="M54" s="17">
+        <v>70</v>
+      </c>
+      <c r="N54" s="18">
         <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="O54" s="18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P54" s="19">
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="N54" s="18">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="O54" s="18">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="P54" s="19">
-        <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
+      <c r="R54" s="46">
+        <f t="shared" si="10"/>
+        <v>1233</v>
+      </c>
+      <c r="S54" s="46">
+        <v>80</v>
+      </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C55" s="11">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C55" s="11">
-        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3630,11 +4254,11 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="G55" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H55" s="1"/>
@@ -3642,48 +4266,53 @@
         <v>18</v>
       </c>
       <c r="J55" s="15">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="K55" s="10">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="L55" s="16">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="L55" s="16">
+      <c r="M55" s="17">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="M55" s="17">
+        <v>66</v>
+      </c>
+      <c r="N55" s="18">
         <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="O55" s="18">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P55" s="19">
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="N55" s="18">
-        <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="O55" s="18">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="P55" s="19">
-        <f t="shared" si="9"/>
-        <v>66</v>
-      </c>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
+      <c r="R55" s="46">
+        <f t="shared" si="10"/>
+        <v>1208</v>
+      </c>
+      <c r="S55" s="46">
+        <v>60</v>
+      </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C56" s="11">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C56" s="11">
-        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3691,11 +4320,11 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="G56" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H56" s="1"/>
@@ -3703,48 +4332,53 @@
         <v>18</v>
       </c>
       <c r="J56" s="15">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="K56" s="10">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L56" s="16">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="L56" s="16">
+      <c r="M56" s="17">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="M56" s="17">
+        <v>69</v>
+      </c>
+      <c r="N56" s="18">
         <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="O56" s="18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="P56" s="19">
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="N56" s="18">
-        <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="O56" s="18">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="P56" s="19">
-        <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
+      <c r="R56" s="46">
+        <f t="shared" si="10"/>
+        <v>1229</v>
+      </c>
+      <c r="S56" s="46">
+        <v>40</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C57" s="11">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C57" s="11">
-        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3752,11 +4386,11 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="H57" s="1"/>
@@ -3764,48 +4398,53 @@
         <v>18</v>
       </c>
       <c r="J57" s="15">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="K57" s="10">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="L57" s="16">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="L57" s="16">
+      <c r="M57" s="17">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="M57" s="17">
+        <v>67</v>
+      </c>
+      <c r="N57" s="18">
         <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="O57" s="18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P57" s="19">
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="N57" s="18">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="O57" s="18">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="P57" s="19">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="R57" s="46">
+        <f t="shared" si="10"/>
+        <v>1210</v>
+      </c>
+      <c r="S57" s="46">
+        <v>20</v>
+      </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="21">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="22">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C58" s="23">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C58" s="23">
-        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D58" s="24" t="s">
@@ -3813,11 +4452,11 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="G58" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="H58" s="1"/>
@@ -3825,48 +4464,53 @@
         <v>18</v>
       </c>
       <c r="J58" s="26">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="K58" s="22">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L58" s="27">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="L58" s="27">
+      <c r="M58" s="28">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="M58" s="28">
+        <v>68</v>
+      </c>
+      <c r="N58" s="29">
         <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="O58" s="29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P58" s="19">
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
-      <c r="N58" s="29">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="O58" s="29">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="P58" s="19">
-        <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="R58" s="46">
+        <f t="shared" si="10"/>
+        <v>1218.5</v>
+      </c>
+      <c r="S58" s="46">
+        <v>0</v>
+      </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C59" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C59" s="11">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3874,11 +4518,11 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="G59" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="H59" s="1"/>
@@ -3886,48 +4530,53 @@
         <v>19</v>
       </c>
       <c r="J59" s="15">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="K59" s="10">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L59" s="16">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="L59" s="16">
+      <c r="M59" s="17">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="M59" s="17">
+        <v>72</v>
+      </c>
+      <c r="N59" s="18">
         <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="O59" s="18">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="P59" s="19">
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="N59" s="18">
-        <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-      <c r="O59" s="18">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="P59" s="19">
-        <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
+      <c r="R59" s="46">
+        <f t="shared" si="10"/>
+        <v>1400</v>
+      </c>
+      <c r="S59" s="46">
+        <v>140</v>
+      </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="10">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C60" s="11">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C60" s="11">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3935,11 +4584,11 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="G60" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="H60" s="1"/>
@@ -3947,48 +4596,53 @@
         <v>19</v>
       </c>
       <c r="J60" s="15">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K60" s="10">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="L60" s="16">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="L60" s="16">
+      <c r="M60" s="17">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="M60" s="17">
+        <v>79</v>
+      </c>
+      <c r="N60" s="18">
         <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="O60" s="18">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="P60" s="19">
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
-      <c r="N60" s="18">
-        <f t="shared" si="7"/>
-        <v>111</v>
-      </c>
-      <c r="O60" s="18">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="P60" s="19">
-        <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="R60" s="46">
+        <f t="shared" si="10"/>
+        <v>1437</v>
+      </c>
+      <c r="S60" s="46">
+        <v>120</v>
+      </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C61" s="11">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C61" s="11">
-        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3996,11 +4650,11 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="H61" s="1"/>
@@ -4008,48 +4662,53 @@
         <v>19</v>
       </c>
       <c r="J61" s="15">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="K61" s="10">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="L61" s="16">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="L61" s="16">
+      <c r="M61" s="17">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="M61" s="17">
+        <v>73</v>
+      </c>
+      <c r="N61" s="18">
         <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="O61" s="18">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="P61" s="19">
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="N61" s="18">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="O61" s="18">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="P61" s="19">
-        <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="R61" s="46">
+        <f t="shared" si="10"/>
+        <v>1404</v>
+      </c>
+      <c r="S61" s="46">
+        <v>100</v>
+      </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C62" s="11">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C62" s="11">
-        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4057,11 +4716,11 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="G62" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="H62" s="1"/>
@@ -4069,48 +4728,53 @@
         <v>19</v>
       </c>
       <c r="J62" s="15">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="K62" s="10">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L62" s="16">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="L62" s="16">
+      <c r="M62" s="17">
         <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="M62" s="17">
+        <v>78</v>
+      </c>
+      <c r="N62" s="18">
         <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="O62" s="18">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="P62" s="19">
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="N62" s="18">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="O62" s="18">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="P62" s="19">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+      <c r="R62" s="46">
+        <f t="shared" si="10"/>
+        <v>1433</v>
+      </c>
+      <c r="S62" s="46">
+        <v>80</v>
+      </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="10">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C63" s="11">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C63" s="11">
-        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4118,11 +4782,11 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="G63" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="H63" s="1"/>
@@ -4130,48 +4794,53 @@
         <v>19</v>
       </c>
       <c r="J63" s="15">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="K63" s="10">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="L63" s="16">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="L63" s="16">
+      <c r="M63" s="17">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="M63" s="17">
+        <v>74</v>
+      </c>
+      <c r="N63" s="18">
         <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="O63" s="18">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="P63" s="19">
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
-      <c r="N63" s="18">
-        <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="O63" s="18">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="P63" s="19">
-        <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
       <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="R63" s="46">
+        <f t="shared" si="10"/>
+        <v>1408</v>
+      </c>
+      <c r="S63" s="46">
+        <v>60</v>
+      </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C64" s="11">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C64" s="11">
-        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4179,11 +4848,11 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="H64" s="1"/>
@@ -4191,48 +4860,53 @@
         <v>19</v>
       </c>
       <c r="J64" s="15">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="K64" s="10">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L64" s="16">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="L64" s="16">
+      <c r="M64" s="17">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="M64" s="17">
+        <v>77</v>
+      </c>
+      <c r="N64" s="18">
         <f t="shared" si="6"/>
+        <v>109</v>
+      </c>
+      <c r="O64" s="18">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="P64" s="19">
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
-      <c r="N64" s="18">
-        <f t="shared" si="7"/>
-        <v>109</v>
-      </c>
-      <c r="O64" s="18">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="P64" s="19">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
       <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="R64" s="46">
+        <f t="shared" si="10"/>
+        <v>1429</v>
+      </c>
+      <c r="S64" s="46">
+        <v>40</v>
+      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C65" s="11">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C65" s="11">
-        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4240,11 +4914,11 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="G65" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="H65" s="1"/>
@@ -4252,48 +4926,53 @@
         <v>19</v>
       </c>
       <c r="J65" s="15">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="K65" s="10">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="L65" s="16">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="L65" s="16">
+      <c r="M65" s="17">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="M65" s="17">
+        <v>75</v>
+      </c>
+      <c r="N65" s="18">
         <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="O65" s="18">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="P65" s="19">
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="N65" s="18">
-        <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="O65" s="18">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="P65" s="19">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
+      <c r="R65" s="46">
+        <f t="shared" si="10"/>
+        <v>1410</v>
+      </c>
+      <c r="S65" s="46">
+        <v>20</v>
+      </c>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="10">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C66" s="11">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C66" s="11">
-        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4301,11 +4980,11 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="G66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="H66" s="1"/>
@@ -4313,39 +4992,44 @@
         <v>19</v>
       </c>
       <c r="J66" s="15">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="K66" s="10">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L66" s="16">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="L66" s="16">
+      <c r="M66" s="17">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="M66" s="17">
+        <v>76</v>
+      </c>
+      <c r="N66" s="18">
         <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="O66" s="18">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="P66" s="19">
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
-      <c r="N66" s="18">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-      <c r="O66" s="18">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="P66" s="19">
-        <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
       <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
+      <c r="R66" s="46">
+        <f t="shared" si="10"/>
+        <v>1418.5</v>
+      </c>
+      <c r="S66" s="46">
+        <v>0</v>
+      </c>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4363,12 +5047,10 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
@@ -4386,12 +5068,12 @@
       <c r="O68" s="24"/>
       <c r="P68" s="24"/>
       <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
       <c r="T68" s="24"/>
       <c r="U68" s="24"/>
     </row>
-    <row r="69" ht="37.5">
+    <row r="69" spans="1:21" ht="39" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
@@ -4417,12 +5099,12 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" ht="60.0">
+    <row r="70" spans="1:21" ht="65" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>24</v>
       </c>
@@ -4452,12 +5134,10 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="33" t="s">
         <v>28</v>
       </c>
@@ -4491,21 +5171,19 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="34">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B72" s="35">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="C72" s="32"/>
       <c r="D72" s="35">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E72" s="10">
         <f t="shared" ref="E72:E87" si="11">A72+1</f>
@@ -4517,13 +5195,13 @@
         <v>47</v>
       </c>
       <c r="H72" s="15">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="I72" s="15">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="J72" s="34">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4532,22 +5210,20 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <f t="shared" ref="A73:A79" si="12">A72+2</f>
         <v>50</v>
       </c>
       <c r="B73" s="35">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="35">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E73" s="10">
         <f t="shared" si="11"/>
@@ -4559,10 +5235,10 @@
         <v>45</v>
       </c>
       <c r="H73" s="15">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="I73" s="15">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="J73" s="10">
         <f t="shared" ref="J73:J87" si="14">J72-2</f>
@@ -4575,22 +5251,20 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="10">
         <f t="shared" si="12"/>
         <v>52</v>
       </c>
       <c r="B74" s="35">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C74" s="32"/>
       <c r="D74" s="35">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E74" s="10">
         <f t="shared" si="11"/>
@@ -4602,10 +5276,10 @@
         <v>43</v>
       </c>
       <c r="H74" s="15">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="I74" s="15">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="J74" s="10">
         <f t="shared" si="14"/>
@@ -4618,22 +5292,20 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="B75" s="35">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="35">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="E75" s="10">
         <f t="shared" si="11"/>
@@ -4645,10 +5317,10 @@
         <v>41</v>
       </c>
       <c r="H75" s="15">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="I75" s="15">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="J75" s="10">
         <f t="shared" si="14"/>
@@ -4661,22 +5333,20 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="10">
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="B76" s="35">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="C76" s="32"/>
       <c r="D76" s="35">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E76" s="10">
         <f t="shared" si="11"/>
@@ -4688,10 +5358,10 @@
         <v>39</v>
       </c>
       <c r="H76" s="15">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="I76" s="15">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="J76" s="10">
         <f t="shared" si="14"/>
@@ -4704,22 +5374,20 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="10">
         <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="B77" s="35">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="35">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="E77" s="10">
         <f t="shared" si="11"/>
@@ -4731,10 +5399,10 @@
         <v>37</v>
       </c>
       <c r="H77" s="15">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="I77" s="15">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="J77" s="10">
         <f t="shared" si="14"/>
@@ -4747,22 +5415,20 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="10">
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="B78" s="35">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="C78" s="32"/>
       <c r="D78" s="35">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E78" s="10">
         <f t="shared" si="11"/>
@@ -4774,10 +5440,10 @@
         <v>35</v>
       </c>
       <c r="H78" s="15">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="I78" s="15">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="J78" s="10">
         <f t="shared" si="14"/>
@@ -4790,22 +5456,20 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="10">
         <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="B79" s="35">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="C79" s="32"/>
       <c r="D79" s="35">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="E79" s="10">
         <f t="shared" si="11"/>
@@ -4817,10 +5481,10 @@
         <v>33</v>
       </c>
       <c r="H79" s="15">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I79" s="15">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J79" s="10">
         <f t="shared" si="14"/>
@@ -4833,21 +5497,19 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="34">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B80" s="35">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C80" s="32"/>
       <c r="D80" s="35">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E80" s="10">
         <f t="shared" si="11"/>
@@ -4859,10 +5521,10 @@
         <v>31</v>
       </c>
       <c r="H80" s="15">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I80" s="15">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J80" s="10">
         <f t="shared" si="14"/>
@@ -4875,22 +5537,20 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="10">
         <f t="shared" ref="A81:A86" si="15">A80+2</f>
         <v>2</v>
       </c>
       <c r="B81" s="35">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C81" s="32"/>
       <c r="D81" s="35">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="E81" s="10">
         <f t="shared" si="11"/>
@@ -4902,10 +5562,10 @@
         <v>29</v>
       </c>
       <c r="H81" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I81" s="15">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J81" s="10">
         <f t="shared" si="14"/>
@@ -4918,22 +5578,20 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="10">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="B82" s="35">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C82" s="32"/>
       <c r="D82" s="35">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E82" s="10">
         <f t="shared" si="11"/>
@@ -4945,10 +5603,10 @@
         <v>27</v>
       </c>
       <c r="H82" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I82" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J82" s="10">
         <f t="shared" si="14"/>
@@ -4961,22 +5619,20 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="10">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B83" s="35">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C83" s="32"/>
       <c r="D83" s="35">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E83" s="10">
         <f t="shared" si="11"/>
@@ -4988,10 +5644,10 @@
         <v>25</v>
       </c>
       <c r="H83" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I83" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J83" s="10">
         <f t="shared" si="14"/>
@@ -5004,22 +5660,20 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="10">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="B84" s="35">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C84" s="32"/>
       <c r="D84" s="35">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E84" s="10">
         <f t="shared" si="11"/>
@@ -5031,10 +5685,10 @@
         <v>23</v>
       </c>
       <c r="H84" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I84" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J84" s="10">
         <f t="shared" si="14"/>
@@ -5047,22 +5701,20 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="10">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="B85" s="35">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C85" s="32"/>
       <c r="D85" s="35">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E85" s="10">
         <f t="shared" si="11"/>
@@ -5074,10 +5726,10 @@
         <v>21</v>
       </c>
       <c r="H85" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I85" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J85" s="10">
         <f t="shared" si="14"/>
@@ -5090,22 +5742,20 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="10">
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="B86" s="35">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="35">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E86" s="10">
         <f t="shared" si="11"/>
@@ -5117,10 +5767,10 @@
         <v>19</v>
       </c>
       <c r="H86" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I86" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J86" s="10">
         <f t="shared" si="14"/>
@@ -5133,21 +5783,19 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="34">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B87" s="35">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C87" s="32"/>
       <c r="D87" s="35">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E87" s="10">
         <f t="shared" si="11"/>
@@ -5159,10 +5807,10 @@
         <v>17</v>
       </c>
       <c r="H87" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J87" s="10">
         <f t="shared" si="14"/>
@@ -5175,12 +5823,10 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="33" t="s">
         <v>31</v>
       </c>
@@ -5214,12 +5860,10 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5237,12 +5881,10 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -5260,15 +5902,18 @@
       <c r="O90" s="24"/>
       <c r="P90" s="24"/>
       <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
       <c r="T90" s="24"/>
       <c r="U90" s="24"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" s="43" t="s">
         <v>33</v>
       </c>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5282,12 +5927,12 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
+      <c r="R91" s="47"/>
+      <c r="S91" s="47"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="37" t="s">
         <v>34</v>
       </c>
@@ -5296,7 +5941,7 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="39" t="str">
-        <f t="shared" ref="D92:D156" si="17">B92</f>
+        <f t="shared" ref="D92:D156" si="16">B92</f>
         <v>Omnetics</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -5314,27 +5959,25 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="10">
-        <f t="shared" ref="A93:B93" si="16">A72</f>
+        <f t="shared" ref="A93:B93" si="17">A72</f>
         <v>48</v>
       </c>
       <c r="B93" s="40">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="41">
         <f t="shared" si="16"/>
         <v>37</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="41">
-        <f t="shared" si="17"/>
-        <v>37</v>
-      </c>
       <c r="E93" s="10">
-        <f t="shared" ref="E93:E156" si="19">A93</f>
+        <f t="shared" ref="E93:E156" si="18">A93</f>
         <v>48</v>
       </c>
       <c r="F93" s="1"/>
@@ -5349,27 +5992,25 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="22">
-        <f t="shared" ref="A94:B94" si="18">A73</f>
+        <f t="shared" ref="A94:B94" si="19">A73</f>
         <v>50</v>
       </c>
       <c r="B94" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="E94" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="F94" s="1"/>
@@ -5384,12 +6025,10 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="22">
         <f t="shared" ref="A95:B95" si="20">A74</f>
         <v>52</v>
@@ -5400,11 +6039,11 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="E95" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="F95" s="1"/>
@@ -5419,12 +6058,10 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="22">
         <f t="shared" ref="A96:B96" si="21">A75</f>
         <v>54</v>
@@ -5435,11 +6072,11 @@
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="E96" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="F96" s="1"/>
@@ -5454,12 +6091,10 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="22">
         <f t="shared" ref="A97:B97" si="22">A76</f>
         <v>56</v>
@@ -5470,11 +6105,11 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="E97" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="F97" s="1"/>
@@ -5489,12 +6124,10 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="22">
         <f t="shared" ref="A98:B98" si="23">A77</f>
         <v>58</v>
@@ -5505,11 +6138,11 @@
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="E98" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="F98" s="1"/>
@@ -5524,12 +6157,10 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="22">
         <f t="shared" ref="A99:B99" si="24">A78</f>
         <v>60</v>
@@ -5540,11 +6171,11 @@
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="E99" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="F99" s="1"/>
@@ -5559,12 +6190,10 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="22">
         <f t="shared" ref="A100:B100" si="25">A79</f>
         <v>62</v>
@@ -5575,11 +6204,11 @@
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="E100" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>62</v>
       </c>
       <c r="F100" s="1"/>
@@ -5594,12 +6223,10 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="22">
         <f t="shared" ref="A101:B101" si="26">A80</f>
         <v>0</v>
@@ -5610,11 +6237,11 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="E101" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F101" s="1"/>
@@ -5629,12 +6256,10 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="22">
         <f t="shared" ref="A102:B102" si="27">A81</f>
         <v>2</v>
@@ -5645,11 +6270,11 @@
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="E102" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="F102" s="1"/>
@@ -5664,12 +6289,10 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="22">
         <f t="shared" ref="A103:B103" si="28">A82</f>
         <v>4</v>
@@ -5680,11 +6303,11 @@
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="E103" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="F103" s="1"/>
@@ -5699,12 +6322,10 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="22">
         <f t="shared" ref="A104:B104" si="29">A83</f>
         <v>6</v>
@@ -5715,11 +6336,11 @@
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="E104" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="F104" s="1"/>
@@ -5734,12 +6355,10 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="10">
         <f t="shared" ref="A105:B105" si="30">A84</f>
         <v>8</v>
@@ -5750,11 +6369,11 @@
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="E105" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="F105" s="1"/>
@@ -5769,12 +6388,10 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="10">
         <f t="shared" ref="A106:B106" si="31">A85</f>
         <v>10</v>
@@ -5785,11 +6402,11 @@
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="E106" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="F106" s="1"/>
@@ -5804,12 +6421,10 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="22">
         <f t="shared" ref="A107:B107" si="32">A86</f>
         <v>12</v>
@@ -5820,11 +6435,11 @@
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="E107" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="F107" s="1"/>
@@ -5839,12 +6454,10 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="10">
         <f t="shared" ref="A108:B108" si="33">A87</f>
         <v>14</v>
@@ -5855,11 +6468,11 @@
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="E108" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="F108" s="1"/>
@@ -5874,12 +6487,10 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="10">
         <f t="shared" ref="A109:A124" si="34">E72</f>
         <v>49</v>
@@ -5890,11 +6501,11 @@
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="E109" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="F109" s="1"/>
@@ -5909,12 +6520,10 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="10">
         <f t="shared" si="34"/>
         <v>51</v>
@@ -5925,11 +6534,11 @@
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="E110" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="F110" s="1"/>
@@ -5944,12 +6553,10 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="10">
         <f t="shared" si="34"/>
         <v>53</v>
@@ -5960,11 +6567,11 @@
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="E111" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="F111" s="1"/>
@@ -5979,12 +6586,10 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="10">
         <f t="shared" si="34"/>
         <v>55</v>
@@ -5995,11 +6600,11 @@
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41</v>
       </c>
       <c r="E112" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
       <c r="F112" s="1"/>
@@ -6014,12 +6619,10 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="10">
         <f t="shared" si="34"/>
         <v>57</v>
@@ -6030,11 +6633,11 @@
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="E113" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="F113" s="1"/>
@@ -6049,12 +6652,10 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="10">
         <f t="shared" si="34"/>
         <v>59</v>
@@ -6065,11 +6666,11 @@
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="E114" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="F114" s="1"/>
@@ -6084,12 +6685,10 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="10">
         <f t="shared" si="34"/>
         <v>61</v>
@@ -6100,11 +6699,11 @@
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
       <c r="E115" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="F115" s="1"/>
@@ -6119,12 +6718,10 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="10">
         <f t="shared" si="34"/>
         <v>63</v>
@@ -6135,11 +6732,11 @@
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="E116" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
       <c r="F116" s="1"/>
@@ -6154,12 +6751,10 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="10">
         <f t="shared" si="34"/>
         <v>1</v>
@@ -6170,11 +6765,11 @@
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="E117" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="F117" s="1"/>
@@ -6189,12 +6784,10 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="10">
         <f t="shared" si="34"/>
         <v>3</v>
@@ -6205,11 +6798,11 @@
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="E118" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="F118" s="1"/>
@@ -6224,12 +6817,10 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="10">
         <f t="shared" si="34"/>
         <v>5</v>
@@ -6240,11 +6831,11 @@
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="E119" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="F119" s="1"/>
@@ -6259,12 +6850,10 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="10">
         <f t="shared" si="34"/>
         <v>7</v>
@@ -6275,11 +6864,11 @@
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="E120" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="F120" s="1"/>
@@ -6294,12 +6883,10 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="10">
         <f t="shared" si="34"/>
         <v>9</v>
@@ -6310,11 +6897,11 @@
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="E121" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="F121" s="1"/>
@@ -6329,12 +6916,10 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="10">
         <f t="shared" si="34"/>
         <v>11</v>
@@ -6345,11 +6930,11 @@
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="E122" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="F122" s="1"/>
@@ -6364,12 +6949,10 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="10">
         <f t="shared" si="34"/>
         <v>13</v>
@@ -6380,11 +6963,11 @@
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="E123" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="F123" s="1"/>
@@ -6399,12 +6982,10 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="10">
         <f t="shared" si="34"/>
         <v>15</v>
@@ -6415,11 +6996,11 @@
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="E124" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="F124" s="1"/>
@@ -6434,12 +7015,10 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="10">
         <f t="shared" ref="A125:B125" si="36">G72</f>
         <v>47</v>
@@ -6450,11 +7029,11 @@
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="E125" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="F125" s="1"/>
@@ -6469,12 +7048,10 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="10">
         <f t="shared" ref="A126:B126" si="37">G73</f>
         <v>45</v>
@@ -6485,11 +7062,11 @@
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="E126" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="F126" s="1"/>
@@ -6504,12 +7081,10 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="10">
         <f t="shared" ref="A127:B127" si="38">G74</f>
         <v>43</v>
@@ -6520,11 +7095,11 @@
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="E127" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="F127" s="1"/>
@@ -6539,12 +7114,10 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="10">
         <f t="shared" ref="A128:B128" si="39">G75</f>
         <v>41</v>
@@ -6555,11 +7128,11 @@
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>58</v>
       </c>
       <c r="E128" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="F128" s="1"/>
@@ -6574,12 +7147,10 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="10">
         <f t="shared" ref="A129:B129" si="40">G76</f>
         <v>39</v>
@@ -6590,11 +7161,11 @@
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="E129" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="F129" s="1"/>
@@ -6609,12 +7180,10 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="10">
         <f t="shared" ref="A130:B130" si="41">G77</f>
         <v>37</v>
@@ -6625,11 +7194,11 @@
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="E130" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="F130" s="1"/>
@@ -6644,12 +7213,10 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="10">
         <f t="shared" ref="A131:B131" si="42">G78</f>
         <v>35</v>
@@ -6660,11 +7227,11 @@
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="E131" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="F131" s="1"/>
@@ -6679,12 +7246,10 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="10">
         <f t="shared" ref="A132:B132" si="43">G79</f>
         <v>33</v>
@@ -6695,11 +7260,11 @@
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="E132" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="F132" s="1"/>
@@ -6714,12 +7279,10 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="10">
         <f t="shared" ref="A133:B133" si="44">G80</f>
         <v>31</v>
@@ -6730,11 +7293,11 @@
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="E133" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="F133" s="1"/>
@@ -6749,12 +7312,10 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="10">
         <f t="shared" ref="A134:B134" si="45">G81</f>
         <v>29</v>
@@ -6765,11 +7326,11 @@
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="E134" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="F134" s="1"/>
@@ -6784,12 +7345,10 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="10">
         <f t="shared" ref="A135:B135" si="46">G82</f>
         <v>27</v>
@@ -6800,11 +7359,11 @@
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E135" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="F135" s="1"/>
@@ -6819,12 +7378,10 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="10">
         <f t="shared" ref="A136:B136" si="47">G83</f>
         <v>25</v>
@@ -6835,11 +7392,11 @@
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E136" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="F136" s="1"/>
@@ -6854,12 +7411,10 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="10">
         <f t="shared" ref="A137:B137" si="48">G84</f>
         <v>23</v>
@@ -6870,11 +7425,11 @@
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="E137" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="F137" s="1"/>
@@ -6889,12 +7444,10 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="10">
         <f t="shared" ref="A138:B138" si="49">G85</f>
         <v>21</v>
@@ -6905,11 +7458,11 @@
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="E138" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="F138" s="1"/>
@@ -6924,12 +7477,10 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="10">
         <f t="shared" ref="A139:B139" si="50">G86</f>
         <v>19</v>
@@ -6940,11 +7491,11 @@
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="E139" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="F139" s="1"/>
@@ -6959,12 +7510,10 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="10">
         <f t="shared" ref="A140:B140" si="51">G87</f>
         <v>17</v>
@@ -6975,11 +7524,11 @@
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E140" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="F140" s="1"/>
@@ -6994,12 +7543,10 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="10">
         <f t="shared" ref="A141:A156" si="52">J72</f>
         <v>46</v>
@@ -7010,11 +7557,11 @@
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>63</v>
       </c>
       <c r="E141" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="F141" s="1"/>
@@ -7029,12 +7576,10 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="10">
         <f t="shared" si="52"/>
         <v>44</v>
@@ -7045,11 +7590,11 @@
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>61</v>
       </c>
       <c r="E142" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="F142" s="1"/>
@@ -7064,12 +7609,10 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="10">
         <f t="shared" si="52"/>
         <v>42</v>
@@ -7080,11 +7623,11 @@
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="E143" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="F143" s="1"/>
@@ -7099,12 +7642,10 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
         <f t="shared" si="52"/>
         <v>40</v>
@@ -7115,11 +7656,11 @@
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="E144" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="F144" s="1"/>
@@ -7134,12 +7675,10 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="10">
         <f t="shared" si="52"/>
         <v>38</v>
@@ -7150,11 +7689,11 @@
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="E145" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="F145" s="1"/>
@@ -7169,12 +7708,10 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <f t="shared" si="52"/>
         <v>36</v>
@@ -7185,11 +7722,11 @@
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="E146" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="F146" s="1"/>
@@ -7204,12 +7741,10 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="10">
         <f t="shared" si="52"/>
         <v>34</v>
@@ -7220,11 +7755,11 @@
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="E147" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="F147" s="1"/>
@@ -7239,12 +7774,10 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="10">
         <f t="shared" si="52"/>
         <v>32</v>
@@ -7255,11 +7788,11 @@
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="E148" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="F148" s="1"/>
@@ -7274,12 +7807,10 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="10">
         <f t="shared" si="52"/>
         <v>30</v>
@@ -7290,11 +7821,11 @@
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="E149" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="F149" s="1"/>
@@ -7309,12 +7840,10 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="10">
         <f t="shared" si="52"/>
         <v>28</v>
@@ -7325,11 +7854,11 @@
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="F150" s="1"/>
@@ -7344,12 +7873,10 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="10">
         <f t="shared" si="52"/>
         <v>26</v>
@@ -7360,11 +7887,11 @@
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="E151" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="F151" s="1"/>
@@ -7379,12 +7906,10 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="10">
         <f t="shared" si="52"/>
         <v>24</v>
@@ -7395,11 +7920,11 @@
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F152" s="1"/>
@@ -7414,12 +7939,10 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="10">
         <f t="shared" si="52"/>
         <v>22</v>
@@ -7430,11 +7953,11 @@
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="E153" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="F153" s="1"/>
@@ -7449,12 +7972,10 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="10">
         <f t="shared" si="52"/>
         <v>20</v>
@@ -7465,11 +7986,11 @@
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="E154" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="F154" s="1"/>
@@ -7484,12 +8005,10 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="10">
         <f t="shared" si="52"/>
         <v>18</v>
@@ -7500,11 +8019,11 @@
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="E155" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="F155" s="1"/>
@@ -7519,12 +8038,10 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="10">
         <f t="shared" si="52"/>
         <v>16</v>
@@ -7535,11 +8052,11 @@
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="E156" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="F156" s="1"/>
@@ -7554,12 +8071,10 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7577,12 +8092,10 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7600,12 +8113,10 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7623,12 +8134,10 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7646,12 +8155,10 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7669,12 +8176,10 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7692,12 +8197,10 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7715,12 +8218,10 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7738,12 +8239,10 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7761,12 +8260,10 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7784,12 +8281,10 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7807,12 +8302,10 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7830,12 +8323,10 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7853,12 +8344,10 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7876,12 +8365,10 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7899,12 +8386,10 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7922,12 +8407,10 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7945,12 +8428,10 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7968,12 +8449,10 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7991,12 +8470,10 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8014,12 +8491,10 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8037,12 +8512,10 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8060,12 +8533,10 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8083,12 +8554,10 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8106,12 +8575,10 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8129,12 +8596,10 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8152,12 +8617,10 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8175,8 +8638,6 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
@@ -8184,6 +8645,6 @@
   <mergeCells count="1">
     <mergeCell ref="A91:D91"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>